--- a/Extras/Names_list.xlsx
+++ b/Extras/Names_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sutdapac-my.sharepoint.com/personal/matthieu_demari_sutd_edu_sg/Documents/Teaching folder for web/9. DL @ SUTD 2021-ongoing/Teaching Materials/1. Lectures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sutdapac-my.sharepoint.com/personal/matthieu_demari_sutd_edu_sg/Documents/Teaching folder for web/9. DL @ SUTD 2021-ongoing/Teaching Materials/1. Lectures/Extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="56" documentId="11_F25DC773A252ABDACC10480EB1D941EE5BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8609FA23-6578-43B2-AF05-8AE5216620AC}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1185" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Extras/Names_list.xlsx
+++ b/Extras/Names_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sutdapac-my.sharepoint.com/personal/matthieu_demari_sutd_edu_sg/Documents/Teaching folder for web/9. DL @ SUTD 2021-ongoing/Teaching Materials/1. Lectures/Extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="11_F25DC773A252ABDACC10480EB1D941EE5BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8609FA23-6578-43B2-AF05-8AE5216620AC}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="11_F25DC773A252ABDACC10480EB1D941EE5BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32244435-DA01-4858-A26B-F11F6073D648}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Family name</t>
   </si>
@@ -103,6 +103,51 @@
   </si>
   <si>
     <t>Jimmy</t>
+  </si>
+  <si>
+    <t>Nitish</t>
+  </si>
+  <si>
+    <t>Srivastava</t>
+  </si>
+  <si>
+    <t>Krizhevsky</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Sutskever</t>
+  </si>
+  <si>
+    <t>Ilya</t>
+  </si>
+  <si>
+    <t>Salakhutdinov</t>
+  </si>
+  <si>
+    <t>Ruslan</t>
+  </si>
+  <si>
+    <t>Ioffe</t>
+  </si>
+  <si>
+    <t>Sergey</t>
+  </si>
+  <si>
+    <t>Szegedy</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Diederik</t>
+  </si>
+  <si>
+    <t>OpenAI</t>
+  </si>
+  <si>
+    <t>Google Brain</t>
   </si>
 </sst>
 </file>
@@ -164,10 +209,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,6 +640,9 @@
       <c r="A12" t="s">
         <v>23</v>
       </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
       <c r="C12">
         <v>2</v>
       </c>
@@ -617,6 +661,112 @@
         <v>2</v>
       </c>
       <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
         <v>2</v>
       </c>
     </row>

--- a/Extras/Names_list.xlsx
+++ b/Extras/Names_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sutdapac-my.sharepoint.com/personal/matthieu_demari_sutd_edu_sg/Documents/Teaching folder for web/9. DL @ SUTD 2021-ongoing/Teaching Materials/1. Lectures/Extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="11_F25DC773A252ABDACC10480EB1D941EE5BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32244435-DA01-4858-A26B-F11F6073D648}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="11_F25DC773A252ABDACC10480EB1D941EE5BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46DB0E33-4B95-40BB-BC02-CF5FF0430492}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Family name</t>
   </si>
@@ -148,6 +148,33 @@
   </si>
   <si>
     <t>Google Brain</t>
+  </si>
+  <si>
+    <t>Simonyan</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>DeepMind</t>
+  </si>
+  <si>
+    <t>Zisserman</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Ren</t>
+  </si>
+  <si>
+    <t>Shaoqing</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Jian</t>
   </si>
 </sst>
 </file>
@@ -474,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,6 +797,73 @@
         <v>2</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Extras/Names_list.xlsx
+++ b/Extras/Names_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sutdapac-my.sharepoint.com/personal/matthieu_demari_sutd_edu_sg/Documents/Teaching folder for web/9. DL @ SUTD 2021-ongoing/Teaching Materials/1. Lectures/Extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="11_F25DC773A252ABDACC10480EB1D941EE5BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46DB0E33-4B95-40BB-BC02-CF5FF0430492}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="11_F25DC773A252ABDACC10480EB1D941EE5BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D10EA2A-F820-49F6-AB4D-2D4691C09DCA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,20 +190,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -215,14 +219,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -504,7 +510,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Extras/Names_list.xlsx
+++ b/Extras/Names_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sutdapac-my.sharepoint.com/personal/matthieu_demari_sutd_edu_sg/Documents/Teaching folder for web/9. DL @ SUTD 2021-ongoing/Teaching Materials/1. Lectures/Extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="11_F25DC773A252ABDACC10480EB1D941EE5BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D10EA2A-F820-49F6-AB4D-2D4691C09DCA}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="11_F25DC773A252ABDACC10480EB1D941EE5BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3F246F3-21E9-49E0-82AE-8C507F06112A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Family name</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>Jian</t>
+  </si>
+  <si>
+    <t>Quoc V.</t>
+  </si>
+  <si>
+    <t>Le</t>
   </si>
 </sst>
 </file>
@@ -507,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,6 +876,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Extras/Names_list.xlsx
+++ b/Extras/Names_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sutdapac-my.sharepoint.com/personal/matthieu_demari_sutd_edu_sg/Documents/Teaching folder for web/9. DL @ SUTD 2021-ongoing/Teaching Materials/1. Lectures/Extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="11_F25DC773A252ABDACC10480EB1D941EE5BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3F246F3-21E9-49E0-82AE-8C507F06112A}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="11_F25DC773A252ABDACC10480EB1D941EE5BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{270DFDE3-A896-4B00-9275-BD0B8F03F0FA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>Family name</t>
   </si>
@@ -181,6 +181,42 @@
   </si>
   <si>
     <t>Le</t>
+  </si>
+  <si>
+    <t>Goofellow</t>
+  </si>
+  <si>
+    <t>Ian</t>
+  </si>
+  <si>
+    <t>Kurakin</t>
+  </si>
+  <si>
+    <t>Alexei</t>
+  </si>
+  <si>
+    <t>Samy</t>
+  </si>
+  <si>
+    <t>Madry</t>
+  </si>
+  <si>
+    <t>Aleksander</t>
+  </si>
+  <si>
+    <t>Papernot</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>Carlini</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>Wagner</t>
   </si>
 </sst>
 </file>
@@ -513,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,6 +926,104 @@
         <v>3</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Extras/Names_list.xlsx
+++ b/Extras/Names_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sutdapac-my.sharepoint.com/personal/matthieu_demari_sutd_edu_sg/Documents/Teaching folder for web/9. DL @ SUTD 2021-ongoing/Teaching Materials/1. Lectures/Extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="150" documentId="11_F25DC773A252ABDACC10480EB1D941EE5BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{270DFDE3-A896-4B00-9275-BD0B8F03F0FA}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="11_F25DC773A252ABDACC10480EB1D941EE5BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8AA183A-BE7F-4FBD-932D-4645FC21FC2C}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>Family name</t>
   </si>
@@ -217,6 +217,18 @@
   </si>
   <si>
     <t>Wagner</t>
+  </si>
+  <si>
+    <t>Cho</t>
+  </si>
+  <si>
+    <t>Kyunghyun</t>
+  </si>
+  <si>
+    <t>Bahdanau</t>
+  </si>
+  <si>
+    <t>Dzmitri</t>
   </si>
 </sst>
 </file>
@@ -549,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,6 +1036,34 @@
         <v>3</v>
       </c>
     </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Extras/Names_list.xlsx
+++ b/Extras/Names_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sutdapac-my.sharepoint.com/personal/matthieu_demari_sutd_edu_sg/Documents/Teaching folder for web/9. DL @ SUTD 2021-ongoing/Teaching Materials/1. Lectures/Extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="11_F25DC773A252ABDACC10480EB1D941EE5BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8AA183A-BE7F-4FBD-932D-4645FC21FC2C}"/>
+  <xr:revisionPtr revIDLastSave="371" documentId="11_F25DC773A252ABDACC10480EB1D941EE5BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C318119-330E-4CA2-B782-DAB154D388DF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="158">
   <si>
     <t>Family name</t>
   </si>
@@ -229,6 +229,276 @@
   </si>
   <si>
     <t>Dzmitri</t>
+  </si>
+  <si>
+    <t>Schmidhuber</t>
+  </si>
+  <si>
+    <t>Jurgen</t>
+  </si>
+  <si>
+    <t>Hochreiter</t>
+  </si>
+  <si>
+    <t>Sepp</t>
+  </si>
+  <si>
+    <t>Mikolov</t>
+  </si>
+  <si>
+    <t>Tomas</t>
+  </si>
+  <si>
+    <t>Peters</t>
+  </si>
+  <si>
+    <t>Matthew E.</t>
+  </si>
+  <si>
+    <t>Hugging Face</t>
+  </si>
+  <si>
+    <t>Brockman</t>
+  </si>
+  <si>
+    <t>Greg</t>
+  </si>
+  <si>
+    <t>Altman</t>
+  </si>
+  <si>
+    <t>Radford</t>
+  </si>
+  <si>
+    <t>Alec</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Conneau</t>
+  </si>
+  <si>
+    <t>Alexis</t>
+  </si>
+  <si>
+    <t>Cer</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Schnabel</t>
+  </si>
+  <si>
+    <t>Tobias</t>
+  </si>
+  <si>
+    <t>Bolukbasi</t>
+  </si>
+  <si>
+    <t>Tolga</t>
+  </si>
+  <si>
+    <t>Vaswani</t>
+  </si>
+  <si>
+    <t>Anish</t>
+  </si>
+  <si>
+    <t>Delvin</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>Kipf</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Welling</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Van den Berg</t>
+  </si>
+  <si>
+    <t>Rianne</t>
+  </si>
+  <si>
+    <t>Romero-Soriano</t>
+  </si>
+  <si>
+    <t>Adriana</t>
+  </si>
+  <si>
+    <t>Velickovic</t>
+  </si>
+  <si>
+    <t>Petar</t>
+  </si>
+  <si>
+    <t>Leskovec</t>
+  </si>
+  <si>
+    <t>Jure</t>
+  </si>
+  <si>
+    <t>Karras</t>
+  </si>
+  <si>
+    <t>Tero</t>
+  </si>
+  <si>
+    <t>Mirza</t>
+  </si>
+  <si>
+    <t>Mehdi</t>
+  </si>
+  <si>
+    <t>Sutton</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Barto</t>
+  </si>
+  <si>
+    <t>Sliver</t>
+  </si>
+  <si>
+    <t>Mnih</t>
+  </si>
+  <si>
+    <t>Volodymir</t>
+  </si>
+  <si>
+    <t>Hassabis</t>
+  </si>
+  <si>
+    <t>Demis</t>
+  </si>
+  <si>
+    <t>Graves</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Michael I.</t>
+  </si>
+  <si>
+    <t>Cummins</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Sejnowski</t>
+  </si>
+  <si>
+    <t>Terrence</t>
+  </si>
+  <si>
+    <t>Norvig</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Russel</t>
+  </si>
+  <si>
+    <t>Stuart</t>
+  </si>
+  <si>
+    <t>Chollet</t>
+  </si>
+  <si>
+    <t>François</t>
+  </si>
+  <si>
+    <t>Hastie</t>
+  </si>
+  <si>
+    <t>Trevor</t>
+  </si>
+  <si>
+    <t>Tibshirani</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Vapnik</t>
+  </si>
+  <si>
+    <t>Vladimir</t>
+  </si>
+  <si>
+    <t>Karpathy</t>
+  </si>
+  <si>
+    <t>Andrej</t>
+  </si>
+  <si>
+    <t>Fei-Fei</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>Jain</t>
+  </si>
+  <si>
+    <t>Anil K.</t>
+  </si>
+  <si>
+    <t>Malik</t>
+  </si>
+  <si>
+    <t>Jitendra</t>
+  </si>
+  <si>
+    <t>Thrun</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Koller</t>
+  </si>
+  <si>
+    <t>Daphne</t>
+  </si>
+  <si>
+    <t>Ng</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>Jeremy</t>
+  </si>
+  <si>
+    <t>Abu-Mostafa</t>
+  </si>
+  <si>
+    <t>Yaser S.</t>
+  </si>
+  <si>
+    <t>Rachel L.</t>
+  </si>
+  <si>
+    <t>Abbeel</t>
+  </si>
+  <si>
+    <t>Pieter</t>
   </si>
 </sst>
 </file>
@@ -296,6 +566,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{791524FA-DE1C-4CD2-AD6F-A7DF9BCD07B8}" name="Table1" displayName="Table1" ref="A1:D84" totalsRowShown="0" headerRowCellStyle="Neutral">
+  <autoFilter ref="A1:D84" xr:uid="{791524FA-DE1C-4CD2-AD6F-A7DF9BCD07B8}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E8631C0E-9046-40CC-BBD6-81FD40277D20}" name="Family name"/>
+    <tableColumn id="2" xr3:uid="{630E968C-B351-4C1A-A79F-F65A6C5F08E3}" name="First name"/>
+    <tableColumn id="3" xr3:uid="{ADF0FC34-8E9A-4EC4-B7CF-D2E1DC4990C0}" name="Appeared first in Week "/>
+    <tableColumn id="4" xr3:uid="{7365F667-BBB3-44D1-B288-55396DB60176}" name="Lecture"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -561,15 +844,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:XFD84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1062,6 +1346,675 @@
       </c>
       <c r="D36">
         <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53">
+        <v>9</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55">
+        <v>9</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59">
+        <v>11</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60">
+        <v>11</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>11</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62">
+        <v>11</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63">
+        <v>12</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64">
+        <v>12</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65">
+        <v>12</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66">
+        <v>12</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67">
+        <v>12</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68">
+        <v>12</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69">
+        <v>12</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70">
+        <v>12</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71">
+        <v>12</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" t="s">
+        <v>135</v>
+      </c>
+      <c r="C72">
+        <v>12</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" t="s">
+        <v>139</v>
+      </c>
+      <c r="C74">
+        <v>12</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75" t="s">
+        <v>141</v>
+      </c>
+      <c r="C75">
+        <v>12</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76">
+        <v>12</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77">
+        <v>12</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>146</v>
+      </c>
+      <c r="B78" t="s">
+        <v>147</v>
+      </c>
+      <c r="C78">
+        <v>12</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>148</v>
+      </c>
+      <c r="B79" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79">
+        <v>12</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>150</v>
+      </c>
+      <c r="B80" t="s">
+        <v>45</v>
+      </c>
+      <c r="C80">
+        <v>12</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81">
+        <v>12</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82">
+        <v>12</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" t="s">
+        <v>155</v>
+      </c>
+      <c r="C83">
+        <v>12</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>156</v>
+      </c>
+      <c r="B84" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84">
+        <v>12</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1071,5 +2024,8 @@
     <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KFF0000 Restricted&amp;1#_x000D_</oddHeader>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;12&amp;KFF0000 Restricted</oddFooter>
   </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>